--- a/config/testcases/Report_BE.PD01Dialogue(Clone).xlsx
+++ b/config/testcases/Report_BE.PD01Dialogue(Clone).xlsx
@@ -237,19 +237,19 @@
     <t>Đợi next game xuất hiện</t>
   </si>
   <si>
-    <t>Nextgame(Clone)/ButtonNextGame,30</t>
+    <t>BEPD01ButtonNextGame,30</t>
   </si>
   <si>
     <t>Click next game</t>
   </si>
   <si>
-    <t>Nextgame(Clone)/ButtonNextGame,Button,onClick()</t>
+    <t>BEPD01ButtonNextGame,Button,onClick()</t>
   </si>
   <si>
     <t>waitForObjectNotPresent</t>
   </si>
   <si>
-    <t>CanvasGamePlay/ChatScreen,60</t>
+    <t>*PD01Dialogue*,60</t>
   </si>
   <si>
     <t>Loop</t>
@@ -1825,8 +1825,8 @@
         <v>Return type</v>
       </c>
       <c r="D1" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"value[Ex]")</f>
-        <v>value[Ex]</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Example")</f>
+        <v>Example</v>
       </c>
       <c r="E1" s="53" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Return")</f>
@@ -1938,7 +1938,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
         <v>void</v>
       </c>
-      <c r="D4" s="55"/>
+      <c r="D4" s="55" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"http://localhost:8342/q/scene//Button(Clone)[14].Button.onClick()")</f>
+        <v>http://localhost:8342/q/scene//Button(Clone)[14].Button.onClick()</v>
+      </c>
       <c r="E4" s="54"/>
       <c r="F4" s="54"/>
       <c r="G4" s="54"/>
@@ -2331,7 +2334,10 @@
       </c>
       <c r="D14" s="55"/>
       <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
+      <c r="F14" s="56" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Kiểm tra gameobject(element) có xuất hiện trên màn hình k")</f>
+        <v>Kiểm tra gameobject(element) có xuất hiện trên màn hình k</v>
+      </c>
       <c r="G14" s="54"/>
       <c r="H14" s="54"/>
       <c r="I14" s="54"/>
@@ -5113,12 +5119,12 @@
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setIndexVariableFile")</f>
-        <v>setIndexVariableFile</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setVariableFile")</f>
+        <v>setVariableFile</v>
       </c>
       <c r="B87" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"index")</f>
-        <v>index</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"key(exist),value")</f>
+        <v>key(exist),value</v>
       </c>
       <c r="C87" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5127,8 +5133,8 @@
       <c r="D87" s="54"/>
       <c r="E87" s="54"/>
       <c r="F87" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"set value for ""index"" in variable field")</f>
-        <v>set value for "index" in variable field</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"gán giá trị cho biến index trong variable file ")</f>
+        <v>gán giá trị cho biến index trong variable file </v>
       </c>
       <c r="G87" s="54"/>
       <c r="H87" s="54"/>
@@ -5153,12 +5159,12 @@
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setVariableFile")</f>
-        <v>setVariableFile</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"addVariableFile")</f>
+        <v>addVariableFile</v>
       </c>
       <c r="B88" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"key(exist),value")</f>
-        <v>key(exist),value</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"key,add")</f>
+        <v>key,add</v>
       </c>
       <c r="C88" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5190,12 +5196,12 @@
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"addIndexVariableFile")</f>
-        <v>addIndexVariableFile</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTC")</f>
+        <v>changeModeTC</v>
       </c>
       <c r="B89" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"add")</f>
-        <v>add</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"keyWord,locator,component,tcRow,expected")</f>
+        <v>keyWord,locator,component,tcRow,expected</v>
       </c>
       <c r="C89" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5227,12 +5233,12 @@
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"addVariableFile")</f>
-        <v>addVariableFile</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTC")</f>
+        <v>changeModeTC</v>
       </c>
       <c r="B90" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"key,add")</f>
-        <v>key,add</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"variableKey,runYes,runNo,expect")</f>
+        <v>variableKey,runYes,runNo,expect</v>
       </c>
       <c r="C90" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5240,7 +5246,10 @@
       </c>
       <c r="D90" s="54"/>
       <c r="E90" s="54"/>
-      <c r="F90" s="54"/>
+      <c r="F90" s="54" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"runYes: row tc modeyes")</f>
+        <v>runYes: row tc modeyes</v>
+      </c>
       <c r="G90" s="54"/>
       <c r="H90" s="54"/>
       <c r="I90" s="54"/>
@@ -5264,12 +5273,12 @@
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTC")</f>
-        <v>changeModeTC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTCSetTrue")</f>
+        <v>changeModeTCSetTrue</v>
       </c>
       <c r="B91" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"keyWord,locator,component,tcRow,expected")</f>
-        <v>keyWord,locator,component,tcRow,expected</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"(String actual,String tcRow,String expect)")</f>
+        <v>(String actual,String tcRow,String expect)</v>
       </c>
       <c r="C91" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5277,7 +5286,10 @@
       </c>
       <c r="D91" s="54"/>
       <c r="E91" s="54"/>
-      <c r="F91" s="54"/>
+      <c r="F91" s="54" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"actual check equal expect if true tcRow set mode run YES")</f>
+        <v>actual check equal expect if true tcRow set mode run YES</v>
+      </c>
       <c r="G91" s="54"/>
       <c r="H91" s="54"/>
       <c r="I91" s="54"/>
@@ -5301,12 +5313,12 @@
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTC")</f>
-        <v>changeModeTC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTCSetFail")</f>
+        <v>changeModeTCSetFail</v>
       </c>
       <c r="B92" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"variableKey,runYes,runNo,expect")</f>
-        <v>variableKey,runYes,runNo,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"(String actual,String tcRow,String expect)")</f>
+        <v>(String actual,String tcRow,String expect)</v>
       </c>
       <c r="C92" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5315,8 +5327,8 @@
       <c r="D92" s="54"/>
       <c r="E92" s="54"/>
       <c r="F92" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"runYes: row tc modeyes")</f>
-        <v>runYes: row tc modeyes</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"actual check equal expect if true tcRow set mode run NO")</f>
+        <v>actual check equal expect if true tcRow set mode run NO</v>
       </c>
       <c r="G92" s="54"/>
       <c r="H92" s="54"/>
@@ -5341,12 +5353,12 @@
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTCSetTrue")</f>
-        <v>changeModeTCSetTrue</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isElementDisplay")</f>
+        <v>isElementDisplay</v>
       </c>
       <c r="B93" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"(String actual,String tcRow,String expect)")</f>
-        <v>(String actual,String tcRow,String expect)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element[,strSplit]")</f>
+        <v>element[,strSplit]</v>
       </c>
       <c r="C93" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5354,10 +5366,7 @@
       </c>
       <c r="D93" s="54"/>
       <c r="E93" s="54"/>
-      <c r="F93" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"actual check equal expect if true tcRow set mode run YES")</f>
-        <v>actual check equal expect if true tcRow set mode run YES</v>
-      </c>
+      <c r="F93" s="54"/>
       <c r="G93" s="54"/>
       <c r="H93" s="54"/>
       <c r="I93" s="54"/>
@@ -5381,12 +5390,12 @@
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTCSetFail")</f>
-        <v>changeModeTCSetFail</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"addTagForObject")</f>
+        <v>addTagForObject</v>
       </c>
       <c r="B94" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"(String actual,String tcRow,String expect)")</f>
-        <v>(String actual,String tcRow,String expect)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,newTag")</f>
+        <v>element,newTag</v>
       </c>
       <c r="C94" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5394,10 +5403,7 @@
       </c>
       <c r="D94" s="54"/>
       <c r="E94" s="54"/>
-      <c r="F94" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"actual check equal expect if true tcRow set mode run NO")</f>
-        <v>actual check equal expect if true tcRow set mode run NO</v>
-      </c>
+      <c r="F94" s="54"/>
       <c r="G94" s="54"/>
       <c r="H94" s="54"/>
       <c r="I94" s="54"/>
@@ -5421,20 +5427,20 @@
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isElementDisplay")</f>
-        <v>isElementDisplay</v>
-      </c>
-      <c r="B95" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element[,strSplit]")</f>
-        <v>element[,strSplit]</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"pause")</f>
+        <v>pause</v>
+      </c>
+      <c r="B95" s="54"/>
       <c r="C95" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
         <v>void</v>
       </c>
       <c r="D95" s="54"/>
       <c r="E95" s="54"/>
-      <c r="F95" s="54"/>
+      <c r="F95" s="54" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"pause program")</f>
+        <v>pause program</v>
+      </c>
       <c r="G95" s="54"/>
       <c r="H95" s="54"/>
       <c r="I95" s="54"/>
@@ -5458,20 +5464,20 @@
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"addTagForObject")</f>
-        <v>addTagForObject</v>
-      </c>
-      <c r="B96" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,newTag")</f>
-        <v>element,newTag</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"resume")</f>
+        <v>resume</v>
+      </c>
+      <c r="B96" s="54"/>
       <c r="C96" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
         <v>void</v>
       </c>
       <c r="D96" s="54"/>
       <c r="E96" s="54"/>
-      <c r="F96" s="54"/>
+      <c r="F96" s="54" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"unpause program")</f>
+        <v>unpause program</v>
+      </c>
       <c r="G96" s="54"/>
       <c r="H96" s="54"/>
       <c r="I96" s="54"/>
@@ -5495,20 +5501,20 @@
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"pause")</f>
-        <v>pause</v>
-      </c>
-      <c r="B97" s="54"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudiosSource")</f>
+        <v>getAudiosSource</v>
+      </c>
+      <c r="B97" s="54" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,expect")</f>
+        <v>element,expect</v>
+      </c>
       <c r="C97" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
       </c>
       <c r="D97" s="54"/>
       <c r="E97" s="54"/>
-      <c r="F97" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"pause program")</f>
-        <v>pause program</v>
-      </c>
+      <c r="F97" s="54"/>
       <c r="G97" s="54"/>
       <c r="H97" s="54"/>
       <c r="I97" s="54"/>
@@ -5532,20 +5538,20 @@
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"resume")</f>
-        <v>resume</v>
-      </c>
-      <c r="B98" s="54"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudiosSourceByTime")</f>
+        <v>getAudiosSourceByTime</v>
+      </c>
+      <c r="B98" s="54" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second,expect")</f>
+        <v>element,second,expect</v>
+      </c>
       <c r="C98" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
       </c>
       <c r="D98" s="54"/>
       <c r="E98" s="54"/>
-      <c r="F98" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"unpause program")</f>
-        <v>unpause program</v>
-      </c>
+      <c r="F98" s="54"/>
       <c r="G98" s="54"/>
       <c r="H98" s="54"/>
       <c r="I98" s="54"/>
@@ -5569,12 +5575,12 @@
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudiosSource")</f>
-        <v>getAudiosSource</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudiosSourceByLocator")</f>
+        <v>getAudiosSourceByLocator</v>
       </c>
       <c r="B99" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,expect")</f>
-        <v>element,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,element2,expect")</f>
+        <v>element1,element2,expect</v>
       </c>
       <c r="C99" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -5606,20 +5612,23 @@
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudiosSourceByTime")</f>
-        <v>getAudiosSourceByTime</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"deFindAnswerDienThe")</f>
+        <v>deFindAnswerDienThe</v>
       </c>
       <c r="B100" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second,expect")</f>
-        <v>element,second,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element(ảnh),component,property[,strReplace,strAdd],element1(text),expect")</f>
+        <v>element(ảnh),component,property[,strReplace,strAdd],element1(text),expect</v>
       </c>
       <c r="C100" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
       </c>
       <c r="D100" s="54"/>
       <c r="E100" s="54"/>
-      <c r="F100" s="54"/>
+      <c r="F100" s="54" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return value locator1 in $.path in variable file")</f>
+        <v>return value locator1 in $.path in variable file</v>
+      </c>
       <c r="G100" s="54"/>
       <c r="H100" s="54"/>
       <c r="I100" s="54"/>
@@ -5643,16 +5652,16 @@
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudiosSourceByLocator")</f>
-        <v>getAudiosSourceByLocator</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getElementDisplayInScene")</f>
+        <v>getElementDisplayInScene</v>
       </c>
       <c r="B101" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,element2,expect")</f>
-        <v>element1,element2,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"strAdd,expect")</f>
+        <v>strAdd,expect</v>
       </c>
       <c r="C101" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
       </c>
       <c r="D101" s="54"/>
       <c r="E101" s="54"/>
@@ -5680,23 +5689,20 @@
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"deFindAnswerDienThe")</f>
-        <v>deFindAnswerDienThe</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isElementsDisplay")</f>
+        <v>isElementsDisplay</v>
       </c>
       <c r="B102" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element(ảnh),component,property[,strReplace,strAdd],element1(text),expect")</f>
-        <v>element(ảnh),component,property[,strReplace,strAdd],element1(text),expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"strSplit,locator")</f>
+        <v>strSplit,locator</v>
       </c>
       <c r="C102" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
       </c>
       <c r="D102" s="54"/>
       <c r="E102" s="54"/>
-      <c r="F102" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return value locator1 in $.path in variable file")</f>
-        <v>return value locator1 in $.path in variable file</v>
-      </c>
+      <c r="F102" s="54"/>
       <c r="G102" s="54"/>
       <c r="H102" s="54"/>
       <c r="I102" s="54"/>
@@ -5720,12 +5726,12 @@
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getElementDisplayInScene")</f>
-        <v>getElementDisplayInScene</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"swipeMap")</f>
+        <v>swipeMap</v>
       </c>
       <c r="B103" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"strAdd,expect")</f>
-        <v>strAdd,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,property,key,expect")</f>
+        <v>element,component,property,key,expect</v>
       </c>
       <c r="C103" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5733,7 +5739,10 @@
       </c>
       <c r="D103" s="54"/>
       <c r="E103" s="54"/>
-      <c r="F103" s="54"/>
+      <c r="F103" s="54" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"key file data to get list leson")</f>
+        <v>key file data to get list leson</v>
+      </c>
       <c r="G103" s="54"/>
       <c r="H103" s="54"/>
       <c r="I103" s="54"/>
@@ -5757,12 +5766,12 @@
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isElementsDisplay")</f>
-        <v>isElementsDisplay</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"comPairImage")</f>
+        <v>comPairImage</v>
       </c>
       <c r="B104" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"strSplit,locator")</f>
-        <v>strSplit,locator</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,expect")</f>
+        <v>element,expect</v>
       </c>
       <c r="C104" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -5770,7 +5779,10 @@
       </c>
       <c r="D104" s="54"/>
       <c r="E104" s="54"/>
-      <c r="F104" s="54"/>
+      <c r="F104" s="54" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"trả về true or false dùng trong những TH check ảnh có hoặc k tùy data")</f>
+        <v>trả về true or false dùng trong những TH check ảnh có hoặc k tùy data</v>
+      </c>
       <c r="G104" s="54"/>
       <c r="H104" s="54"/>
       <c r="I104" s="54"/>
@@ -5794,22 +5806,22 @@
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"swipeMap")</f>
-        <v>swipeMap</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"comPairWordHasImage")</f>
+        <v>comPairWordHasImage</v>
       </c>
       <c r="B105" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,property,key,expect")</f>
-        <v>element,component,property,key,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,expect")</f>
+        <v>element,expect</v>
       </c>
       <c r="C105" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
       </c>
       <c r="D105" s="54"/>
       <c r="E105" s="54"/>
       <c r="F105" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"key file data to get list leson")</f>
-        <v>key file data to get list leson</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"trả về true or false dùng trong những TH check ảnh có hoặc k tùy data")</f>
+        <v>trả về true or false dùng trong những TH check ảnh có hoặc k tùy data</v>
       </c>
       <c r="G105" s="54"/>
       <c r="H105" s="54"/>
@@ -5834,22 +5846,22 @@
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"comPairImage")</f>
-        <v>comPairImage</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"skipLesson")</f>
+        <v>skipLesson</v>
       </c>
       <c r="B106" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,expect")</f>
-        <v>element,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
+        <v>element</v>
       </c>
       <c r="C106" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
       </c>
       <c r="D106" s="54"/>
       <c r="E106" s="54"/>
       <c r="F106" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"trả về true or false dùng trong những TH check ảnh có hoặc k tùy data")</f>
-        <v>trả về true or false dùng trong những TH check ảnh có hoặc k tùy data</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sử dụng với những nút có thể onclick()")</f>
+        <v>sử dụng với những nút có thể onclick()</v>
       </c>
       <c r="G106" s="54"/>
       <c r="H106" s="54"/>
@@ -5873,24 +5885,12 @@
       <c r="Z106" s="54"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"comPairWordHasImage")</f>
-        <v>comPairWordHasImage</v>
-      </c>
-      <c r="B107" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,expect")</f>
-        <v>element,expect</v>
-      </c>
-      <c r="C107" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
-      </c>
+      <c r="A107" s="54"/>
+      <c r="B107" s="54"/>
+      <c r="C107" s="54"/>
       <c r="D107" s="54"/>
       <c r="E107" s="54"/>
-      <c r="F107" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"trả về true or false dùng trong những TH check ảnh có hoặc k tùy data")</f>
-        <v>trả về true or false dùng trong những TH check ảnh có hoặc k tùy data</v>
-      </c>
+      <c r="F107" s="54"/>
       <c r="G107" s="54"/>
       <c r="H107" s="54"/>
       <c r="I107" s="54"/>
@@ -5913,24 +5913,12 @@
       <c r="Z107" s="54"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"skipLesson")</f>
-        <v>skipLesson</v>
-      </c>
-      <c r="B108" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
-        <v>element</v>
-      </c>
-      <c r="C108" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
-      </c>
+      <c r="A108" s="54"/>
+      <c r="B108" s="54"/>
+      <c r="C108" s="54"/>
       <c r="D108" s="54"/>
       <c r="E108" s="54"/>
-      <c r="F108" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sử dụng với những nút có thể onclick()")</f>
-        <v>sử dụng với những nút có thể onclick()</v>
-      </c>
+      <c r="F108" s="54"/>
       <c r="G108" s="54"/>
       <c r="H108" s="54"/>
       <c r="I108" s="54"/>
